--- a/forwardprimer-v3_05.xlsx
+++ b/forwardprimer-v3_05.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_05" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F0385-ACCTTGATGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCTTGATGGTCGTCGGCAGCGTC</t>
+    <t>F0385-AGACCAACAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACCAACAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F0386-ATGAGTTGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGAGTTGTCTCGTCGGCAGCGTC</t>
+    <t>F0386-TCTTGCTGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTTGCTGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F0387-ACAGTCAGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGTCAGAATCGTCGGCAGCGTC</t>
+    <t>F0387-TAGAGTACCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGAGTACCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F0388-CTAGATGCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTAGATGCTCTCGTCGGCAGCGTC</t>
+    <t>F0388-CAACCACTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACCACTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>F0389-GAGTCTACGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGTCTACGTTCGTCGGCAGCGTC</t>
+    <t>F0389-CAAGATCTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGATCTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>F0390-ACTGCAGACA</t>
+    <t>F0390-CTACGTCATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACGTCATCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>F0391-TCGAACGTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGAACGTACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>F0392-AGGAACTACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGAACTACATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>F0393-ACAACGACTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAACGACTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>F0394-TGAGATCTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAGATCTCGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>F0395-TGATCAGGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGATCAGGTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>F0396-CTCATCACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCATCACAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>F0397-GACTGTGTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACTGTGTGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>F0398-GCTACGTTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTACGTTGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>F0399-TTCTGGTCCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCTGGTCCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>F0400-TCAGAGACTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGAGACTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>F0401-CAAGTGCTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGTGCTACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>F0402-AAGTCCAGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTCCAGCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>F0403-CTAGTCAAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTAGTCAAGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>F0404-TCGAACAAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGAACAAGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>F0405-CATCCATGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATCCATGGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>F0406-AACACGACTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACACGACTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>F0407-AACACTCTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACACTCTTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>F0408-GAGTGTAGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGTGTAGGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>F0409-AGCTCACATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCTCACATGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>F0410-ACGTCTACTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGTCTACTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>F0411-TCAGTCGTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGTCGTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>F0412-CTCAACACGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCAACACGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>F0413-AGAGCAACGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGCAACGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>F0414-GAGTCTTCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGTCTTCTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>F0415-TTGTCAGCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGTCAGCATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>F0416-GACTCATCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACTCATCTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>F0417-AAGATGGATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGATGGATCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>F0418-AAGAAGCAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGAAGCAACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>F0419-GTTGCTTGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTGCTTGGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>F0420-ATGTACCTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGTACCTGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>F0421-CTGCTTCGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGCTTCGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>F0422-TGCATGATGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCATGATGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>F0423-AACGATGTGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACGATGTGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>F0424-TTCAGCACTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCAGCACTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>F0425-GTACAAGAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACAAGAGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>F0426-GATGGAAGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGGAAGTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>F0427-TTGAGGTTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGAGGTTGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>F0428-ACAACCAACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAACCAACATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>F0429-TTGGTCTCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGGTCTCATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>F0430-AGCAGTTGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCAGTTGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>F0431-AAGACTCGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGACTCGTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>F0432-CTGAGTACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGAGTACACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>F0433-ACAAGCTCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAAGCTCAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>F0434-GTAGACTCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGACTCACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>F0435-AACGTAGCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACGTAGCTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>F0436-TGTGTTGTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTGTTGTCCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>F0437-AAGGTCTCGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGGTCTCGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>F0438-CATGACAGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATGACAGTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>F0439-CTAGATCGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTAGATCGAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>F0440-ACGTTGCTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGTTGCTGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>F0441-TGGATGGTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGATGGTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>F0442-GATCCAAGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCCAAGTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>F0443-GGTACCATCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTACCATCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>F0444-TCTTCCTGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTTCCTGCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F0445-GGTACATGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTACATGCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F0446-TCCAGTGTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCAGTGTGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F0447-GAACGTCTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACGTCTACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F0448-TCAACTCACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAACTCACGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F0449-ACTGCAGACA</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACACTGCAGACATCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>F0391-AGATGTGGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGATGTGGAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>F0392-GAAGGTGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGGTGTCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>F0393-ACTCTGACTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCTGACTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>F0394-GTCATGGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCATGGTACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>F0395-CACTCACTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACTCACTTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>F0396-TAGTCATCCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGTCATCCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>F0397-GTTCGATCGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTCGATCGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>F0398-AAGCATCCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGCATCCACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>F0399-TGTTCGTACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTTCGTACTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>F0400-ACGATCGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGATCGTCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>F0401-TAGTCCATCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGTCCATCGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>F0402-AGATCGATCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGATCGATCGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>F0403-GAGAACTGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGAACTGTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>F0404-ATGCATCTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGCATCTGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>F0405-ACAAGAAGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAAGAAGTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>F0406-TACCTCATCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACCTCATCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>F0407-TGCAAGACAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCAAGACATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>F0408-GACACACTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACACACTGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>F0409-GTCCATGATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCCATGATCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>F0410-ACTCGAGAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCGAGAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>F0411-AAGCACAACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGCACAACGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>F0412-TACACTGACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACACTGACATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>F0413-ACCACGTGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCACGTGTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>F0414-GTAGCTCGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGCTCGATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>F0415-CCTTCAGTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTTCAGTTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>F0416-TCGACCACTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGACCACTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>F0417-CAACGTGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACGTGTAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>F0418-CTAGGAACTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTAGGAACTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>F0419-ACGAAGAACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGAAGAACATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>F0420-ACAACAACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAACAACAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>F0421-GACATCACAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACATCACAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>F0422-CTGATCTGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGATCTGTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>F0423-AGACATGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACATGACTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>F0424-ACCTCTAGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCTCTAGCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>F0425-AACGTCCAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACGTCCAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>F0426-CACAAGCTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACAAGCTGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>F0427-TGACAACGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACAACGATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>F0428-TGATGCTGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGATGCTGTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>F0429-TTGAGGACTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGAGGACTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>F0430-GACTAGAGAT</t>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F0450-GAAGCATGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGCATGTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F0451-GTGTCATGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGTCATGAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F0452-ATCACAGCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCACAGCTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F0453-CTCAACGTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCAACGTTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F0454-CCTACAACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTACAACACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F0455-CAAGGATCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGGATCTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F0456-TTGAGAAGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGAGAAGTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>F0457-TAGAGGAGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGAGGAGATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>F0458-TAGCTTCGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGCTTCGAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>F0459-TCCTGTGGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCTGTGGTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>F0460-ATCAGCAAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCAGCAAGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>F0461-AGTGTGGTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTGTGGTTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>F0462-CAAGGAAGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGGAAGTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>F0463-CTACCATGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACCATGTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>F0464-TCGATCTGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGATCTGCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>F0465-TACGATCGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACGATCGTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>F0466-TACATCGTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACATCGTCCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>F0467-GAGTTGATGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGTTGATGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>F0468-AAGAGTAGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGAGTAGCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>F0469-AACACGAACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACACGAACGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>F0470-TACACATGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACACATGTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>F0471-ACACGTCACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACGTCACATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>F0472-TAGTGTCAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGTGTCAGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>F0473-TGGACTCTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGACTCTTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>F0474-TTCCAAGACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCCAAGACATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>F0475-AGTGGAGAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTGGAGAGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>F0476-ACCTCTCGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCTCTCGTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>F0477-AACCAGACTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACCAGACTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>F0478-TGTACAGGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTACAGGTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>F0479-GACTAGAGAT</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACGACTAGAGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>F0431-GCTAGACGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTAGACGTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>F0432-ATCAGGTACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCAGGTACATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>F0433-CATCCTACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCCTACAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>F0434-TCAAGGAGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAAGGAGTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>F0435-GTTCTAGGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTCTAGGTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>F0436-TGTGGACTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTGGACTCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>F0437-CAGATGACAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGATGACATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>F0438-GAACTGACAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACTGACAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>F0439-AGCACATGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCACATGTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>F0440-ACTGGTCAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTGGTCAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>F0441-TGAGAGACCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAGAGACCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>F0442-TAGCTGGTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGCTGGTTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>F0443-TACTGAAGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACTGAAGTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>F0444-ATCACAGCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCACAGCTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F0445-ACACGTTGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACGTTGGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F0446-CTAGTCTACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTAGTCTACTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F0447-TCTCCAGCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCCAGCTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F0448-TAGAGTACCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGAGTACCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>F0449-GAAGCAGACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGCAGACATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>F0450-TCTCAGATCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCAGATCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>F0451-ATCCACATGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCCACATGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>F0452-CCACTTGGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCACTTGGTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>F0453-TTCCTCAGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCCTCAGCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>F0454-ATCCAAGAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCCAAGAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>F0455-GGTTGTCAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTTGTCAGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>F0456-GATCTCTCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATCTCTCACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>F0457-TGAGACGAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAGACGAACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>F0458-TCTCACCTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCACCTAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>F0459-ACTCATGACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCATGACCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>F0460-ACATGACCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACATGACCAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>F0461-ACTACAGCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTACAGCATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>F0462-TCGTCGTTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGTCGTTCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>F0463-TGCAAGTACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCAAGTACGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>F0464-TCGTACACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGTACACAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>F0465-TTCTACGTGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCTACGTGGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>F0466-TTGCTGAGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGCTGAGCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>F0467-TGCAGTTCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCAGTTCAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>F0468-TCCTAGCAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCTAGCAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>F0469-TCCAGAACTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCAGAACTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>F0470-ACACATCGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACATCGTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>F0471-GAAGATCCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGATCCAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>F0472-TTGAACAGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGAACAGAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>F0473-ATGTAGTGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGTAGTGTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H6</t>
-  </si>
-  <si>
-    <t>F0474-GAAGACTGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGACTGGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H7</t>
-  </si>
-  <si>
-    <t>F0475-GGATGGTTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGATGGTTGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H8</t>
-  </si>
-  <si>
-    <t>F0476-TTCCTCTGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCCTCTGACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H9</t>
-  </si>
-  <si>
-    <t>F0477-ACGAACATGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGAACATGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H10</t>
-  </si>
-  <si>
-    <t>F0478-GGTACACCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTACACCTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H11</t>
-  </si>
-  <si>
-    <t>F0479-AGGTAGAGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGTAGAGGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F0480-AACAACGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACAACGTCATCGTCGGCAGCGTC</t>
+    <t>F0480-GTTCCTGGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTCCTGGAATCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
